--- a/data/output/processed_loan_data.xlsx
+++ b/data/output/processed_loan_data.xlsx
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>61310.953125</v>
+        <v>62500</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>93479.85396723554</v>
+        <v>108000</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>91301.814149</v>
+        <v>94500</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>113118.6955572038</v>
+        <v>122000</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>106694.4375</v>
+        <v>108000</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>131013.0218944</v>
+        <v>136000</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>187675.6592446224</v>
+        <v>242000</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>135481.935</v>
+        <v>136200</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>178787.1730057554</v>
+        <v>189150</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>241165.4597629432</v>
+        <v>315000</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>

--- a/data/output/processed_loan_data.xlsx
+++ b/data/output/processed_loan_data.xlsx
@@ -29,12 +29,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -481,35 +488,35 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Alice</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>50000</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.05</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="G2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>62500</v>
       </c>
-      <c r="I2" t="b">
+      <c r="I2" s="2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/data/output/processed_loan_data.xlsx
+++ b/data/output/processed_loan_data.xlsx
@@ -66,7 +66,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -441,82 +443,82 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>CustomerID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>LoanAmount</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>LoanType</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>InterestRate</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>LoanDuration</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>InsuranceOptIn</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>TotalLoanCost</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>InsuranceOffer</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" t="n">
         <v>101</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>Alice</t>
         </is>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" t="n">
         <v>50000</v>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Personal</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" t="n">
         <v>0.05</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>62500</v>
       </c>
-      <c r="I2" s="2" t="b">
+      <c r="I2" t="b">
         <v>1</v>
       </c>
     </row>
